--- a/PeerJ-LS2022/Experiment-PeerJ-LS2022.xlsx
+++ b/PeerJ-LS2022/Experiment-PeerJ-LS2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelv/Documents/legal/school/PeerJ/experimental-scripts/PeerJ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelv/Documents/legal/school/A*-Studie/PeerJ'24 - LS2022+cross/experimental-scripts/PeerJ-LS2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97A9198-1A2E-8E43-BDBE-65EABDB206C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A8D754-2056-5441-A654-503D52E30EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="760" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="760" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,118 +261,40 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>muzm02</t>
-  </si>
-  <si>
     <t>0.5</t>
-  </si>
-  <si>
-    <t>trad04</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>doha05</t>
-  </si>
-  <si>
-    <t>utea00</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>hoja00</t>
   </si>
   <si>
     <t>3.5</t>
   </si>
   <si>
-    <t>vanm32</t>
-  </si>
-  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>mulj07</t>
-  </si>
-  <si>
-    <t>kand03</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>feda07</t>
-  </si>
-  <si>
-    <t>morv03</t>
-  </si>
-  <si>
-    <t>kubd06</t>
-  </si>
-  <si>
-    <t>vejm04</t>
-  </si>
-  <si>
-    <t>kvep00</t>
-  </si>
-  <si>
-    <t>scht09</t>
-  </si>
-  <si>
     <t>2.5</t>
-  </si>
-  <si>
-    <t>kopl11</t>
   </si>
   <si>
     <t>8.5</t>
   </si>
   <si>
-    <t>otoj00</t>
-  </si>
-  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>topa00</t>
-  </si>
-  <si>
-    <t>staj19</t>
-  </si>
-  <si>
-    <t>zabv03</t>
-  </si>
-  <si>
-    <t>strr07</t>
-  </si>
-  <si>
-    <t>ploa00</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>lasj06</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
-    <t>mamj01</t>
-  </si>
-  <si>
-    <t>boxm00</t>
-  </si>
-  <si>
-    <t>podm10</t>
-  </si>
-  <si>
     <t>25</t>
-  </si>
-  <si>
-    <t>ruzj11</t>
   </si>
   <si>
     <t>0</t>
@@ -384,10 +306,88 @@
     <t>Prefer not to say</t>
   </si>
   <si>
-    <t>zedj00</t>
+    <t>6.5</t>
   </si>
   <si>
-    <t>6.5</t>
+    <t>xuzm02</t>
+  </si>
+  <si>
+    <t>xrad04</t>
+  </si>
+  <si>
+    <t>xoha05</t>
+  </si>
+  <si>
+    <t>xtea00</t>
+  </si>
+  <si>
+    <t>xoja00</t>
+  </si>
+  <si>
+    <t>xanm32</t>
+  </si>
+  <si>
+    <t>xulj07</t>
+  </si>
+  <si>
+    <t>xand03</t>
+  </si>
+  <si>
+    <t>xeda07</t>
+  </si>
+  <si>
+    <t>xorv03</t>
+  </si>
+  <si>
+    <t>xubd06</t>
+  </si>
+  <si>
+    <t>xejm04</t>
+  </si>
+  <si>
+    <t>xvep00</t>
+  </si>
+  <si>
+    <t>xcht09</t>
+  </si>
+  <si>
+    <t>xopl11</t>
+  </si>
+  <si>
+    <t>xtoj00</t>
+  </si>
+  <si>
+    <t>xopa00</t>
+  </si>
+  <si>
+    <t>xtaj19</t>
+  </si>
+  <si>
+    <t>xabv03</t>
+  </si>
+  <si>
+    <t>xtrr07</t>
+  </si>
+  <si>
+    <t>xloa00</t>
+  </si>
+  <si>
+    <t>xasj06</t>
+  </si>
+  <si>
+    <t>xamj01</t>
+  </si>
+  <si>
+    <t>xoxm00</t>
+  </si>
+  <si>
+    <t>xodm10</t>
+  </si>
+  <si>
+    <t>xuzj11</t>
+  </si>
+  <si>
+    <t>xedj00</t>
   </si>
 </sst>
 </file>
@@ -434,10 +434,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="67">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -659,74 +656,74 @@
     <sortCondition ref="A1:A78"/>
   </sortState>
   <tableColumns count="68">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="I have read the Consent Form 1.4.2022 and I:" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="I have x year(s) of experience:" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="I am a:" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="1. …is reserved." dataDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2. …is generally trusting." dataDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="3. …tends to be lazy." dataDxfId="57"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="4. …is relaxed, handles stress well." dataDxfId="56"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="5. …has few artistic interests." dataDxfId="55"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="6. …is outgoing, sociable." dataDxfId="54"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="7. …tends to find fault with others." dataDxfId="53"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="8. …does a thorough job." dataDxfId="52"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="9. …gets nervous easily." dataDxfId="51"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="10. …has an active imagination." dataDxfId="50"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="1. I enjoyed doing this activity very much" dataDxfId="49"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2. This activity was fun to do" dataDxfId="48"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="3. I thought this was a boring activity" dataDxfId="47"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="4. This activity did not hold my attention at all" dataDxfId="46"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="5. I would describe this activity as very interesting" dataDxfId="45"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="6. I thought this activity was quite enjoyable" dataDxfId="44"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="7. While I was doing this activity, I was thinking about how much I enjoyed it" dataDxfId="43"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="I was a: Pilot = Option 1, Solo = Option 3, Navigator = Option 5" dataDxfId="42"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="1. I enjoyed doing this activity very much2" dataDxfId="41"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2. This activity was fun to do2" dataDxfId="40"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="3. I thought this was a boring activity2" dataDxfId="39"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="4. This activity did not hold my attention at all2" dataDxfId="38"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="5. I would describe this activity as very interesting2" dataDxfId="37"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="6. I thought this activity was quite enjoyable2" dataDxfId="36"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="7. While I was doing this activity, I was thinking about how much I enjoyed it2" dataDxfId="35"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="I was a: Pilot = Option 1, Solo = Option 3, Navigator = Option 52" dataDxfId="34"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="1. I enjoyed doing this activity very much3" dataDxfId="33"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2. This activity was fun to do3" dataDxfId="32"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="3. I thought this was a boring activity3" dataDxfId="31"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="4. This activity did not hold my attention at all3" dataDxfId="30"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="5. I would describe this activity as very interesting3" dataDxfId="29"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="6. I thought this activity was quite enjoyable3" dataDxfId="28"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="7. While I was doing this activity, I was thinking about how much I enjoyed it3" dataDxfId="27"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="I was a: Pilot = Option 1, Solo = Option 3, Navigator = Option 53" dataDxfId="26"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="1. I enjoyed doing this activity very much4" dataDxfId="25"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2. This activity was fun to do4" dataDxfId="24"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="3. I thought this was a boring activity4" dataDxfId="23"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="4. This activity did not hold my attention at all4" dataDxfId="22"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="5. I would describe this activity as very interesting4" dataDxfId="21"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="6. I thought this activity was quite enjoyable4" dataDxfId="20"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="7. While I was doing this activity, I was thinking about how much I enjoyed it4" dataDxfId="19"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="I was a: Pilot = Option 1, Solo = Option 3, Navigator = Option 54" dataDxfId="18"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="1. I enjoyed doing this activity very much5" dataDxfId="17"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="2. This activity was fun to do5" dataDxfId="16"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="3. I thought this was a boring activity5" dataDxfId="15"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="4. This activity did not hold my attention at all5" dataDxfId="14"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="5. I would describe this activity as very interesting5" dataDxfId="13"/>
-    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="6. I thought this activity was quite enjoyable5" dataDxfId="12"/>
-    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="7. While I was doing this activity, I was thinking about how much I enjoyed it5" dataDxfId="11"/>
-    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="I was a: Pilot = Option 1, Solo = Option 3, Navigator = Option 55" dataDxfId="10"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="1. I enjoyed doing this activity very much6" dataDxfId="9"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="2. This activity was fun to do6" dataDxfId="8"/>
-    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="3. I thought this was a boring activity6" dataDxfId="7"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="4. This activity did not hold my attention at all6" dataDxfId="6"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="5. I would describe this activity as very interesting6" dataDxfId="5"/>
-    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="6. I thought this activity was quite enjoyable6" dataDxfId="4"/>
-    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="7. While I was doing this activity, I was thinking about how much I enjoyed it6" dataDxfId="3"/>
-    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="I was a: Pilot = Option 1, Solo = Option 3, Navigator = Option 56" dataDxfId="2"/>
-    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="I want my psychometric results (in a paper or electronic confidential form):" dataDxfId="1"/>
-    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="My initials are:" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="I have read the Consent Form 1.4.2022 and I:" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="I have x year(s) of experience:" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="I am a:" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="1. …is reserved." dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2. …is generally trusting." dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="3. …tends to be lazy." dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="4. …is relaxed, handles stress well." dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="5. …has few artistic interests." dataDxfId="54"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="6. …is outgoing, sociable." dataDxfId="53"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="7. …tends to find fault with others." dataDxfId="52"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="8. …does a thorough job." dataDxfId="51"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="9. …gets nervous easily." dataDxfId="50"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="10. …has an active imagination." dataDxfId="49"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="1. I enjoyed doing this activity very much" dataDxfId="48"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2. This activity was fun to do" dataDxfId="47"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="3. I thought this was a boring activity" dataDxfId="46"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="4. This activity did not hold my attention at all" dataDxfId="45"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="5. I would describe this activity as very interesting" dataDxfId="44"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="6. I thought this activity was quite enjoyable" dataDxfId="43"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="7. While I was doing this activity, I was thinking about how much I enjoyed it" dataDxfId="42"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="I was a: Pilot = Option 1, Solo = Option 3, Navigator = Option 5" dataDxfId="41"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="1. I enjoyed doing this activity very much2" dataDxfId="40"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2. This activity was fun to do2" dataDxfId="39"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="3. I thought this was a boring activity2" dataDxfId="38"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="4. This activity did not hold my attention at all2" dataDxfId="37"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="5. I would describe this activity as very interesting2" dataDxfId="36"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="6. I thought this activity was quite enjoyable2" dataDxfId="35"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="7. While I was doing this activity, I was thinking about how much I enjoyed it2" dataDxfId="34"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="I was a: Pilot = Option 1, Solo = Option 3, Navigator = Option 52" dataDxfId="33"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="1. I enjoyed doing this activity very much3" dataDxfId="32"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2. This activity was fun to do3" dataDxfId="31"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="3. I thought this was a boring activity3" dataDxfId="30"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="4. This activity did not hold my attention at all3" dataDxfId="29"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="5. I would describe this activity as very interesting3" dataDxfId="28"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="6. I thought this activity was quite enjoyable3" dataDxfId="27"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="7. While I was doing this activity, I was thinking about how much I enjoyed it3" dataDxfId="26"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="I was a: Pilot = Option 1, Solo = Option 3, Navigator = Option 53" dataDxfId="25"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="1. I enjoyed doing this activity very much4" dataDxfId="24"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2. This activity was fun to do4" dataDxfId="23"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="3. I thought this was a boring activity4" dataDxfId="22"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="4. This activity did not hold my attention at all4" dataDxfId="21"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="5. I would describe this activity as very interesting4" dataDxfId="20"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="6. I thought this activity was quite enjoyable4" dataDxfId="19"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="7. While I was doing this activity, I was thinking about how much I enjoyed it4" dataDxfId="18"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="I was a: Pilot = Option 1, Solo = Option 3, Navigator = Option 54" dataDxfId="17"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="1. I enjoyed doing this activity very much5" dataDxfId="16"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="2. This activity was fun to do5" dataDxfId="15"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="3. I thought this was a boring activity5" dataDxfId="14"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="4. This activity did not hold my attention at all5" dataDxfId="13"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="5. I would describe this activity as very interesting5" dataDxfId="12"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="6. I thought this activity was quite enjoyable5" dataDxfId="11"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="7. While I was doing this activity, I was thinking about how much I enjoyed it5" dataDxfId="10"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="I was a: Pilot = Option 1, Solo = Option 3, Navigator = Option 55" dataDxfId="9"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="1. I enjoyed doing this activity very much6" dataDxfId="8"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="2. This activity was fun to do6" dataDxfId="7"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="3. I thought this was a boring activity6" dataDxfId="6"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="4. This activity did not hold my attention at all6" dataDxfId="5"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="5. I would describe this activity as very interesting6" dataDxfId="4"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="6. I thought this activity was quite enjoyable6" dataDxfId="3"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="7. While I was doing this activity, I was thinking about how much I enjoyed it6" dataDxfId="2"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="I was a: Pilot = Option 1, Solo = Option 3, Navigator = Option 56" dataDxfId="1"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="I want my psychometric results (in a paper or electronic confidential form):" dataDxfId="0"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="My initials are:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1031,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI40" workbookViewId="0">
-      <selection activeCell="BM53" sqref="BM53"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BK22" sqref="BK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1446,7 +1443,7 @@
         <v>77</v>
       </c>
       <c r="BP2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.2">
@@ -1466,7 +1463,7 @@
         <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
         <v>71</v>
@@ -1649,7 +1646,7 @@
         <v>77</v>
       </c>
       <c r="BP3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.2">
@@ -1669,7 +1666,7 @@
         <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>71</v>
@@ -1852,7 +1849,7 @@
         <v>77</v>
       </c>
       <c r="BP4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.2">
@@ -1872,7 +1869,7 @@
         <v>69</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
         <v>71</v>
@@ -2055,7 +2052,7 @@
         <v>77</v>
       </c>
       <c r="BP5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.2">
@@ -2075,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
         <v>71</v>
@@ -2258,7 +2255,7 @@
         <v>77</v>
       </c>
       <c r="BP6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.2">
@@ -2278,7 +2275,7 @@
         <v>69</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
         <v>71</v>
@@ -2461,7 +2458,7 @@
         <v>77</v>
       </c>
       <c r="BP7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.2">
@@ -2481,7 +2478,7 @@
         <v>69</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
         <v>71</v>
@@ -2661,10 +2658,10 @@
         <v>76</v>
       </c>
       <c r="BO8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="BP8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.2">
@@ -2684,7 +2681,7 @@
         <v>69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
         <v>71</v>
@@ -2867,7 +2864,7 @@
         <v>77</v>
       </c>
       <c r="BP9" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.2">
@@ -2890,7 +2887,7 @@
         <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
         <v>76</v>
@@ -3070,7 +3067,7 @@
         <v>77</v>
       </c>
       <c r="BP10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.2">
@@ -3090,7 +3087,7 @@
         <v>69</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>71</v>
@@ -3273,7 +3270,7 @@
         <v>77</v>
       </c>
       <c r="BP11" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.2">
@@ -3293,7 +3290,7 @@
         <v>69</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
         <v>71</v>
@@ -3476,7 +3473,7 @@
         <v>77</v>
       </c>
       <c r="BP12" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.2">
@@ -3496,7 +3493,7 @@
         <v>69</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
         <v>71</v>
@@ -3679,7 +3676,7 @@
         <v>77</v>
       </c>
       <c r="BP13" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.2">
@@ -3699,10 +3696,10 @@
         <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
         <v>72</v>
@@ -3882,7 +3879,7 @@
         <v>77</v>
       </c>
       <c r="BP14" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.2">
@@ -3902,7 +3899,7 @@
         <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
         <v>71</v>
@@ -4085,7 +4082,7 @@
         <v>77</v>
       </c>
       <c r="BP15" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.2">
@@ -4105,10 +4102,10 @@
         <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
         <v>72</v>
@@ -4288,7 +4285,7 @@
         <v>77</v>
       </c>
       <c r="BP16" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.2">
@@ -4308,7 +4305,7 @@
         <v>69</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
         <v>71</v>
@@ -4491,7 +4488,7 @@
         <v>77</v>
       </c>
       <c r="BP17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.2">
@@ -4511,10 +4508,10 @@
         <v>69</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
         <v>74</v>
@@ -4694,7 +4691,7 @@
         <v>77</v>
       </c>
       <c r="BP18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.2">
@@ -4714,7 +4711,7 @@
         <v>69</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
         <v>71</v>
@@ -4897,7 +4894,7 @@
         <v>77</v>
       </c>
       <c r="BP19" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.2">
@@ -4917,7 +4914,7 @@
         <v>69</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
         <v>71</v>
@@ -5100,7 +5097,7 @@
         <v>77</v>
       </c>
       <c r="BP20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.2">
@@ -5303,7 +5300,7 @@
         <v>77</v>
       </c>
       <c r="BP21" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.2">
@@ -5323,7 +5320,7 @@
         <v>69</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
         <v>71</v>
@@ -5506,7 +5503,7 @@
         <v>77</v>
       </c>
       <c r="BP22" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.2">
@@ -5526,7 +5523,7 @@
         <v>69</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
         <v>71</v>
@@ -5709,7 +5706,7 @@
         <v>77</v>
       </c>
       <c r="BP23" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.2">
@@ -5729,7 +5726,7 @@
         <v>69</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
         <v>71</v>
@@ -5912,7 +5909,7 @@
         <v>77</v>
       </c>
       <c r="BP24" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.2">
@@ -5932,7 +5929,7 @@
         <v>69</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
         <v>71</v>
@@ -6115,7 +6112,7 @@
         <v>77</v>
       </c>
       <c r="BP25" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.2">
@@ -6135,7 +6132,7 @@
         <v>69</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
         <v>71</v>
@@ -6318,7 +6315,7 @@
         <v>77</v>
       </c>
       <c r="BP26" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.2">
@@ -6338,7 +6335,7 @@
         <v>69</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
         <v>71</v>
@@ -6521,7 +6518,7 @@
         <v>77</v>
       </c>
       <c r="BP27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.2">
@@ -6541,7 +6538,7 @@
         <v>69</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
         <v>71</v>
@@ -6724,7 +6721,7 @@
         <v>77</v>
       </c>
       <c r="BP28" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.2">
@@ -6744,10 +6741,10 @@
         <v>69</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s">
         <v>72</v>
@@ -6927,7 +6924,7 @@
         <v>77</v>
       </c>
       <c r="BP29" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.2">
@@ -6947,7 +6944,7 @@
         <v>69</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
         <v>71</v>
@@ -7130,7 +7127,7 @@
         <v>77</v>
       </c>
       <c r="BP30" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.2">
@@ -7150,7 +7147,7 @@
         <v>69</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
         <v>71</v>
@@ -7333,7 +7330,7 @@
         <v>77</v>
       </c>
       <c r="BP31" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.2">
@@ -7353,7 +7350,7 @@
         <v>69</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s">
         <v>71</v>
@@ -7536,7 +7533,7 @@
         <v>77</v>
       </c>
       <c r="BP32" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.2">
@@ -7556,7 +7553,7 @@
         <v>69</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
         <v>71</v>
@@ -7739,7 +7736,7 @@
         <v>77</v>
       </c>
       <c r="BP33" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.2">
@@ -7759,7 +7756,7 @@
         <v>69</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
         <v>71</v>
@@ -7942,7 +7939,7 @@
         <v>77</v>
       </c>
       <c r="BP34" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.2">
@@ -7965,7 +7962,7 @@
         <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s">
         <v>73</v>
@@ -8145,7 +8142,7 @@
         <v>77</v>
       </c>
       <c r="BP35" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.2">
@@ -8165,7 +8162,7 @@
         <v>69</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
         <v>71</v>
@@ -8348,7 +8345,7 @@
         <v>77</v>
       </c>
       <c r="BP36" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.2">
@@ -8368,7 +8365,7 @@
         <v>69</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
         <v>71</v>
@@ -8551,7 +8548,7 @@
         <v>77</v>
       </c>
       <c r="BP37" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:68" x14ac:dyDescent="0.2">
@@ -8571,7 +8568,7 @@
         <v>69</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s">
         <v>71</v>
@@ -8754,7 +8751,7 @@
         <v>77</v>
       </c>
       <c r="BP38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.2">
@@ -8774,7 +8771,7 @@
         <v>69</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s">
         <v>71</v>
@@ -8957,7 +8954,7 @@
         <v>77</v>
       </c>
       <c r="BP39" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.2">
@@ -8977,10 +8974,10 @@
         <v>69</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s">
         <v>76</v>
@@ -9160,7 +9157,7 @@
         <v>77</v>
       </c>
       <c r="BP40" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:68" x14ac:dyDescent="0.2">
@@ -9363,7 +9360,7 @@
         <v>77</v>
       </c>
       <c r="BP41" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:68" x14ac:dyDescent="0.2">
@@ -9383,7 +9380,7 @@
         <v>69</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s">
         <v>71</v>
@@ -9566,7 +9563,7 @@
         <v>77</v>
       </c>
       <c r="BP42" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:68" x14ac:dyDescent="0.2">
@@ -9586,7 +9583,7 @@
         <v>69</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s">
         <v>71</v>
@@ -9766,10 +9763,10 @@
         <v>75</v>
       </c>
       <c r="BO43" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="BP43" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:68" x14ac:dyDescent="0.2">
@@ -9789,7 +9786,7 @@
         <v>69</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s">
         <v>71</v>
@@ -9972,7 +9969,7 @@
         <v>77</v>
       </c>
       <c r="BP44" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:68" x14ac:dyDescent="0.2">
@@ -9992,10 +9989,10 @@
         <v>69</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I45" t="s">
         <v>74</v>
@@ -10175,7 +10172,7 @@
         <v>77</v>
       </c>
       <c r="BP45" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:68" x14ac:dyDescent="0.2">
@@ -10378,7 +10375,7 @@
         <v>77</v>
       </c>
       <c r="BP46" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:68" x14ac:dyDescent="0.2">
@@ -10398,7 +10395,7 @@
         <v>69</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s">
         <v>71</v>
@@ -10581,7 +10578,7 @@
         <v>77</v>
       </c>
       <c r="BP47" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:68" x14ac:dyDescent="0.2">
@@ -10601,7 +10598,7 @@
         <v>69</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s">
         <v>71</v>
@@ -10784,7 +10781,7 @@
         <v>77</v>
       </c>
       <c r="BP48" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:68" x14ac:dyDescent="0.2">
@@ -10987,7 +10984,7 @@
         <v>77</v>
       </c>
       <c r="BP49" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:68" x14ac:dyDescent="0.2">
@@ -11007,7 +11004,7 @@
         <v>69</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s">
         <v>71</v>
@@ -11190,7 +11187,7 @@
         <v>77</v>
       </c>
       <c r="BP50" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:68" x14ac:dyDescent="0.2">
@@ -11210,7 +11207,7 @@
         <v>69</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s">
         <v>71</v>
@@ -11393,7 +11390,7 @@
         <v>77</v>
       </c>
       <c r="BP51" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:68" x14ac:dyDescent="0.2">
@@ -11413,7 +11410,7 @@
         <v>69</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s">
         <v>71</v>
@@ -11596,7 +11593,7 @@
         <v>77</v>
       </c>
       <c r="BP52" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:68" x14ac:dyDescent="0.2">
@@ -11616,7 +11613,7 @@
         <v>69</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s">
         <v>71</v>
@@ -11799,7 +11796,7 @@
         <v>77</v>
       </c>
       <c r="BP53" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:68" x14ac:dyDescent="0.2">
@@ -11819,7 +11816,7 @@
         <v>69</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
         <v>71</v>
@@ -12002,7 +11999,7 @@
         <v>77</v>
       </c>
       <c r="BP54" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:68" x14ac:dyDescent="0.2">
@@ -12022,7 +12019,7 @@
         <v>69</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s">
         <v>71</v>
@@ -12205,7 +12202,7 @@
         <v>77</v>
       </c>
       <c r="BP55" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:68" x14ac:dyDescent="0.2">
@@ -12225,7 +12222,7 @@
         <v>69</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s">
         <v>71</v>
@@ -12405,10 +12402,10 @@
         <v>76</v>
       </c>
       <c r="BO56" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="BP56" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:68" x14ac:dyDescent="0.2">
@@ -12428,7 +12425,7 @@
         <v>69</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s">
         <v>71</v>
@@ -12611,7 +12608,7 @@
         <v>77</v>
       </c>
       <c r="BP57" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:68" x14ac:dyDescent="0.2">
@@ -12631,10 +12628,10 @@
         <v>69</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s">
         <v>72</v>
@@ -12814,7 +12811,7 @@
         <v>77</v>
       </c>
       <c r="BP58" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:68" x14ac:dyDescent="0.2">
@@ -12834,10 +12831,10 @@
         <v>69</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="I59" t="s">
         <v>75</v>
@@ -13014,10 +13011,10 @@
         <v>76</v>
       </c>
       <c r="BO59" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="BP59" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:68" x14ac:dyDescent="0.2">
@@ -13037,7 +13034,7 @@
         <v>69</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s">
         <v>71</v>
@@ -13217,10 +13214,10 @@
         <v>76</v>
       </c>
       <c r="BO60" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="BP60" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:68" x14ac:dyDescent="0.2">
@@ -13240,7 +13237,7 @@
         <v>69</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s">
         <v>71</v>
@@ -13420,10 +13417,10 @@
         <v>74</v>
       </c>
       <c r="BO61" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="BP61" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:68" x14ac:dyDescent="0.2">
@@ -13443,7 +13440,7 @@
         <v>69</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s">
         <v>71</v>
@@ -13626,7 +13623,7 @@
         <v>77</v>
       </c>
       <c r="BP62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:68" x14ac:dyDescent="0.2">
@@ -13829,7 +13826,7 @@
         <v>77</v>
       </c>
       <c r="BP63" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:68" x14ac:dyDescent="0.2">
@@ -13849,7 +13846,7 @@
         <v>69</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
         <v>71</v>
@@ -14032,7 +14029,7 @@
         <v>77</v>
       </c>
       <c r="BP64" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:68" x14ac:dyDescent="0.2">
@@ -14052,10 +14049,10 @@
         <v>69</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I65" t="s">
         <v>73</v>
@@ -14235,7 +14232,7 @@
         <v>77</v>
       </c>
       <c r="BP65" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:68" x14ac:dyDescent="0.2">
@@ -14255,10 +14252,10 @@
         <v>69</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I66" t="s">
         <v>76</v>
@@ -14435,10 +14432,10 @@
         <v>76</v>
       </c>
       <c r="BO66" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="BP66" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:68" x14ac:dyDescent="0.2">
@@ -14458,7 +14455,7 @@
         <v>69</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s">
         <v>71</v>
@@ -14641,7 +14638,7 @@
         <v>77</v>
       </c>
       <c r="BP67" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:68" x14ac:dyDescent="0.2">
@@ -14661,7 +14658,7 @@
         <v>69</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s">
         <v>71</v>
@@ -14844,7 +14841,7 @@
         <v>77</v>
       </c>
       <c r="BP68" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:68" x14ac:dyDescent="0.2">
@@ -14864,7 +14861,7 @@
         <v>69</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s">
         <v>71</v>
@@ -15047,7 +15044,7 @@
         <v>77</v>
       </c>
       <c r="BP69" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:68" x14ac:dyDescent="0.2">
@@ -15067,7 +15064,7 @@
         <v>69</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s">
         <v>71</v>
@@ -15247,10 +15244,10 @@
         <v>76</v>
       </c>
       <c r="BO70" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="BP70" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:68" x14ac:dyDescent="0.2">
@@ -15453,7 +15450,7 @@
         <v>77</v>
       </c>
       <c r="BP71" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:68" x14ac:dyDescent="0.2">
@@ -15473,7 +15470,7 @@
         <v>69</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s">
         <v>71</v>
@@ -15656,7 +15653,7 @@
         <v>77</v>
       </c>
       <c r="BP72" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:68" x14ac:dyDescent="0.2">
@@ -15859,7 +15856,7 @@
         <v>77</v>
       </c>
       <c r="BP73" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:68" x14ac:dyDescent="0.2">
@@ -15879,10 +15876,10 @@
         <v>69</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I74" t="s">
         <v>74</v>
@@ -16062,7 +16059,7 @@
         <v>77</v>
       </c>
       <c r="BP74" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:68" x14ac:dyDescent="0.2">
@@ -16082,7 +16079,7 @@
         <v>69</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="H75" t="s">
         <v>71</v>
@@ -16265,7 +16262,7 @@
         <v>77</v>
       </c>
       <c r="BP75" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:68" x14ac:dyDescent="0.2">
@@ -16285,7 +16282,7 @@
         <v>69</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s">
         <v>71</v>
@@ -16468,7 +16465,7 @@
         <v>77</v>
       </c>
       <c r="BP76" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:68" x14ac:dyDescent="0.2">
@@ -16488,7 +16485,7 @@
         <v>69</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s">
         <v>71</v>
@@ -16671,7 +16668,7 @@
         <v>77</v>
       </c>
       <c r="BP77" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:68" x14ac:dyDescent="0.2">
@@ -16691,7 +16688,7 @@
         <v>69</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s">
         <v>71</v>
@@ -16874,7 +16871,7 @@
         <v>77</v>
       </c>
       <c r="BP78" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
